--- a/table_tennis.xlsx
+++ b/table_tennis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anes-PC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anes-PC\Github\olx-table-tennis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE1B518-0938-4BAB-993B-E7FD539A47F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D36AD27-C036-4254-A379-E093ECC7EC18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3342B8B0-6E93-4A74-B50E-858ED49C2A60}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{3342B8B0-6E93-4A74-B50E-858ED49C2A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Osobe" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>Kurti</t>
+  </si>
+  <si>
+    <t>Protivnik_1_boja</t>
+  </si>
+  <si>
+    <t>Protivnik_2_boja</t>
   </si>
 </sst>
 </file>
@@ -510,7 +516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68BE28C-2A23-4EC9-AD90-E36D968A1230}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -653,10 +659,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FAD8CA1-9F73-400E-BB5F-9A456D6D532F}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -667,9 +673,10 @@
     <col min="7" max="7" width="10.88671875" customWidth="1"/>
     <col min="8" max="8" width="11.109375" customWidth="1"/>
     <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="10" max="11" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -697,8 +704,14 @@
       <c r="I1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -732,8 +745,16 @@
       <c r="I2" s="1">
         <v>45218</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" t="str">
+        <f>IF(D2=B2,"#00a83f","#dc0000")</f>
+        <v>#dc0000</v>
+      </c>
+      <c r="K2" t="str">
+        <f>IF(D2=C2,"#00a83f","#dc0000")</f>
+        <v>#00a83f</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -767,8 +788,16 @@
       <c r="I3" s="1">
         <v>45218</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J5" si="2">IF(D3=B3,"#00a83f","#dc0000")</f>
+        <v>#dc0000</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K5" si="3">IF(D3=C3,"#00a83f","#dc0000")</f>
+        <v>#00a83f</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -802,8 +831,16 @@
       <c r="I4" s="1">
         <v>45219</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" t="str">
+        <f t="shared" si="2"/>
+        <v>#dc0000</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="3"/>
+        <v>#00a83f</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -836,6 +873,14 @@
       </c>
       <c r="I5" s="1">
         <v>45220</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="2"/>
+        <v>#00a83f</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="3"/>
+        <v>#dc0000</v>
       </c>
     </row>
   </sheetData>

--- a/table_tennis.xlsx
+++ b/table_tennis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anes-PC\Github\olx-table-tennis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D36AD27-C036-4254-A379-E093ECC7EC18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{320B3108-28B9-43DB-9D6A-71374D26B0AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{3342B8B0-6E93-4A74-B50E-858ED49C2A60}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12324" windowHeight="12360" xr2:uid="{3342B8B0-6E93-4A74-B50E-858ED49C2A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Osobe" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -157,10 +157,34 @@
     <t>Kurti</t>
   </si>
   <si>
-    <t>Protivnik_1_boja</t>
-  </si>
-  <si>
-    <t>Protivnik_2_boja</t>
+    <t>Broj utakmica</t>
+  </si>
+  <si>
+    <t>Broj pobjeda</t>
+  </si>
+  <si>
+    <t>Broj poraza</t>
+  </si>
+  <si>
+    <t>Broj osvojenih setova</t>
+  </si>
+  <si>
+    <t>Broj Izgubljenih setova</t>
+  </si>
+  <si>
+    <t>Razlika</t>
+  </si>
+  <si>
+    <t>Rang</t>
+  </si>
+  <si>
+    <t>Rang1</t>
+  </si>
+  <si>
+    <t>Rang2</t>
+  </si>
+  <si>
+    <t>Rang_final</t>
   </si>
 </sst>
 </file>
@@ -514,19 +538,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68BE28C-2A23-4EC9-AD90-E36D968A1230}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.21875" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5546875" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -539,8 +571,38 @@
       <c r="D1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -553,8 +615,48 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <f>COUNTIF(Matchevi!B:B,Osobe!B2)+COUNTIF(Matchevi!C:C,Osobe!B2)</f>
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <f>COUNTIF(Matchevi!D:D,Osobe!B2)</f>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>E2-F2</f>
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <f>SUMIF(Matchevi!B:B,Osobe!B2,Matchevi!F:F)+SUMIF(Matchevi!C:C,Osobe!B2,Matchevi!G:G)</f>
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <f>SUMIF(Matchevi!B:B,Osobe!B2,Matchevi!G:G)+SUMIF(Matchevi!C:C,Osobe!B2,Matchevi!F:F)</f>
+        <v>9</v>
+      </c>
+      <c r="J2">
+        <f>H2-I2</f>
+        <v>-3</v>
+      </c>
+      <c r="K2">
+        <f>RANK(F2,F:F)</f>
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <f>RANK(J2,J:J,1)/100</f>
+        <v>0.01</v>
+      </c>
+      <c r="M2">
+        <f>K2+L2</f>
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="N2">
+        <f>RANK(M2,M:M,1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -567,8 +669,48 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <f>COUNTIF(Matchevi!B:B,Osobe!B3)+COUNTIF(Matchevi!C:C,Osobe!B3)</f>
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <f>COUNTIF(Matchevi!D:D,Osobe!B3)</f>
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G9" si="0">E3-F3</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>SUMIF(Matchevi!B:B,Osobe!B3,Matchevi!F:F)+SUMIF(Matchevi!C:C,Osobe!B3,Matchevi!G:G)</f>
+        <v>9</v>
+      </c>
+      <c r="I3">
+        <f>SUMIF(Matchevi!B:B,Osobe!B3,Matchevi!G:G)+SUMIF(Matchevi!C:C,Osobe!B3,Matchevi!F:F)</f>
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J9" si="1">H3-I3</f>
+        <v>6</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K9" si="2">RANK(F3,F:F)</f>
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L9" si="3">RANK(J3,J:J,1)/100</f>
+        <v>0.08</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M9" si="4">K3+L3</f>
+        <v>1.08</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N9" si="5">RANK(M3,M:M,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -581,8 +723,48 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <f>COUNTIF(Matchevi!B:B,Osobe!B4)+COUNTIF(Matchevi!C:C,Osobe!B4)</f>
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f>COUNTIF(Matchevi!D:D,Osobe!B4)</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <f>SUMIF(Matchevi!B:B,Osobe!B4,Matchevi!F:F)+SUMIF(Matchevi!C:C,Osobe!B4,Matchevi!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f>SUMIF(Matchevi!B:B,Osobe!B4,Matchevi!G:G)+SUMIF(Matchevi!C:C,Osobe!B4,Matchevi!F:F)</f>
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="4"/>
+        <v>3.01</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -595,8 +777,48 @@
       <c r="D5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <f>COUNTIF(Matchevi!B:B,Osobe!B5)+COUNTIF(Matchevi!C:C,Osobe!B5)</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f>COUNTIF(Matchevi!D:D,Osobe!B5)</f>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f>SUMIF(Matchevi!B:B,Osobe!B5,Matchevi!F:F)+SUMIF(Matchevi!C:C,Osobe!B5,Matchevi!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f>SUMIF(Matchevi!B:B,Osobe!B5,Matchevi!G:G)+SUMIF(Matchevi!C:C,Osobe!B5,Matchevi!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="4"/>
+        <v>3.03</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -609,8 +831,48 @@
       <c r="D6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <f>COUNTIF(Matchevi!B:B,Osobe!B6)+COUNTIF(Matchevi!C:C,Osobe!B6)</f>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>COUNTIF(Matchevi!D:D,Osobe!B6)</f>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f>SUMIF(Matchevi!B:B,Osobe!B6,Matchevi!F:F)+SUMIF(Matchevi!C:C,Osobe!B6,Matchevi!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f>SUMIF(Matchevi!B:B,Osobe!B6,Matchevi!G:G)+SUMIF(Matchevi!C:C,Osobe!B6,Matchevi!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
+        <v>3.03</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -623,8 +885,48 @@
       <c r="D7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <f>COUNTIF(Matchevi!B:B,Osobe!B7)+COUNTIF(Matchevi!C:C,Osobe!B7)</f>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>COUNTIF(Matchevi!D:D,Osobe!B7)</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f>SUMIF(Matchevi!B:B,Osobe!B7,Matchevi!F:F)+SUMIF(Matchevi!C:C,Osobe!B7,Matchevi!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f>SUMIF(Matchevi!B:B,Osobe!B7,Matchevi!G:G)+SUMIF(Matchevi!C:C,Osobe!B7,Matchevi!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="4"/>
+        <v>3.03</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -637,8 +939,48 @@
       <c r="D8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <f>COUNTIF(Matchevi!B:B,Osobe!B8)+COUNTIF(Matchevi!C:C,Osobe!B8)</f>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f>COUNTIF(Matchevi!D:D,Osobe!B8)</f>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f>SUMIF(Matchevi!B:B,Osobe!B8,Matchevi!F:F)+SUMIF(Matchevi!C:C,Osobe!B8,Matchevi!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f>SUMIF(Matchevi!B:B,Osobe!B8,Matchevi!G:G)+SUMIF(Matchevi!C:C,Osobe!B8,Matchevi!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="4"/>
+        <v>3.03</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -650,6 +992,46 @@
       </c>
       <c r="D9" t="s">
         <v>17</v>
+      </c>
+      <c r="E9">
+        <f>COUNTIF(Matchevi!B:B,Osobe!B9)+COUNTIF(Matchevi!C:C,Osobe!B9)</f>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f>COUNTIF(Matchevi!D:D,Osobe!B9)</f>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f>SUMIF(Matchevi!B:B,Osobe!B9,Matchevi!F:F)+SUMIF(Matchevi!C:C,Osobe!B9,Matchevi!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f>SUMIF(Matchevi!B:B,Osobe!B9,Matchevi!G:G)+SUMIF(Matchevi!C:C,Osobe!B9,Matchevi!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="4"/>
+        <v>3.03</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -659,10 +1041,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FAD8CA1-9F73-400E-BB5F-9A456D6D532F}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -673,10 +1055,9 @@
     <col min="7" max="7" width="10.88671875" customWidth="1"/>
     <col min="8" max="8" width="11.109375" customWidth="1"/>
     <col min="9" max="9" width="13.44140625" customWidth="1"/>
-    <col min="10" max="11" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -704,14 +1085,8 @@
       <c r="I1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -745,16 +1120,8 @@
       <c r="I2" s="1">
         <v>45218</v>
       </c>
-      <c r="J2" t="str">
-        <f>IF(D2=B2,"#00a83f","#dc0000")</f>
-        <v>#dc0000</v>
-      </c>
-      <c r="K2" t="str">
-        <f>IF(D2=C2,"#00a83f","#dc0000")</f>
-        <v>#00a83f</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -788,16 +1155,8 @@
       <c r="I3" s="1">
         <v>45218</v>
       </c>
-      <c r="J3" t="str">
-        <f t="shared" ref="J3:J5" si="2">IF(D3=B3,"#00a83f","#dc0000")</f>
-        <v>#dc0000</v>
-      </c>
-      <c r="K3" t="str">
-        <f t="shared" ref="K3:K5" si="3">IF(D3=C3,"#00a83f","#dc0000")</f>
-        <v>#00a83f</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -831,16 +1190,8 @@
       <c r="I4" s="1">
         <v>45219</v>
       </c>
-      <c r="J4" t="str">
-        <f t="shared" si="2"/>
-        <v>#dc0000</v>
-      </c>
-      <c r="K4" t="str">
-        <f t="shared" si="3"/>
-        <v>#00a83f</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -873,14 +1224,6 @@
       </c>
       <c r="I5" s="1">
         <v>45220</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" si="2"/>
-        <v>#00a83f</v>
-      </c>
-      <c r="K5" t="str">
-        <f t="shared" si="3"/>
-        <v>#dc0000</v>
       </c>
     </row>
   </sheetData>
@@ -893,14 +1236,14 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">

--- a/table_tennis.xlsx
+++ b/table_tennis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anes-PC\Github\olx-table-tennis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{320B3108-28B9-43DB-9D6A-71374D26B0AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648698F7-ED89-443B-8B87-A141EE8AAF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12324" windowHeight="12360" xr2:uid="{3342B8B0-6E93-4A74-B50E-858ED49C2A60}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{3342B8B0-6E93-4A74-B50E-858ED49C2A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Osobe" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="51">
   <si>
     <t>ID</t>
   </si>
@@ -185,6 +185,12 @@
   </si>
   <si>
     <t>Rang_final</t>
+  </si>
+  <si>
+    <t>Protivnik_1_boja</t>
+  </si>
+  <si>
+    <t>Protivnik_2_boja</t>
   </si>
 </sst>
 </file>
@@ -540,7 +546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68BE28C-2A23-4EC9-AD90-E36D968A1230}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
@@ -1041,10 +1047,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FAD8CA1-9F73-400E-BB5F-9A456D6D532F}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1057,7 +1063,7 @@
     <col min="9" max="9" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1085,8 +1091,14 @@
       <c r="I1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1120,8 +1132,16 @@
       <c r="I2" s="1">
         <v>45218</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" t="str">
+        <f>IF(B2=D2,"#00a83f","#dc0000")</f>
+        <v>#dc0000</v>
+      </c>
+      <c r="K2" t="str">
+        <f>IF(C2=D2,"#00a83f","#dc0000")</f>
+        <v>#00a83f</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1155,8 +1175,16 @@
       <c r="I3" s="1">
         <v>45218</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J5" si="2">IF(B3=D3,"#00a83f","#dc0000")</f>
+        <v>#dc0000</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K5" si="3">IF(C3=D3,"#00a83f","#dc0000")</f>
+        <v>#00a83f</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1190,8 +1218,16 @@
       <c r="I4" s="1">
         <v>45219</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" t="str">
+        <f t="shared" si="2"/>
+        <v>#dc0000</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="3"/>
+        <v>#00a83f</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1224,6 +1260,14 @@
       </c>
       <c r="I5" s="1">
         <v>45220</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="2"/>
+        <v>#00a83f</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="3"/>
+        <v>#dc0000</v>
       </c>
     </row>
   </sheetData>
